--- a/Data/Transitions/19571964Translation.xlsx
+++ b/Data/Transitions/19571964Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="626">
   <si>
     <t>id</t>
   </si>
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1733,9 +1733,6 @@
   </si>
   <si>
     <t>{226.0: 0.9845670939053099, 216.0: 0.015432906094690033}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3905,7 +3902,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>573</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3916,7 +3913,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4125,7 +4122,7 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4235,7 +4232,7 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4455,7 +4452,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4499,7 +4496,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4642,7 +4639,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>573</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4686,7 +4683,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4862,7 +4859,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4917,7 +4914,7 @@
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5016,7 +5013,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5126,7 +5123,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5159,7 +5156,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5170,7 +5167,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5181,7 +5178,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5379,7 +5376,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5467,7 +5464,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5478,7 +5475,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5643,7 +5640,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5676,7 +5673,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5698,7 +5695,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5709,7 +5706,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5753,7 +5750,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5775,7 +5772,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5874,7 +5871,7 @@
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5907,7 +5904,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6028,7 +6025,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6083,7 +6080,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6105,7 +6102,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6116,7 +6113,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6215,7 +6212,7 @@
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6435,7 +6432,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6446,7 +6443,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6611,7 +6608,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6622,7 +6619,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6842,7 +6839,7 @@
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -7150,7 +7147,7 @@
         <v>446</v>
       </c>
       <c r="C445" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7205,7 +7202,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7227,7 +7224,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7238,7 +7235,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7282,7 +7279,7 @@
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -7359,7 +7356,7 @@
         <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -7546,7 +7543,7 @@
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -7579,7 +7576,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -7623,7 +7620,7 @@
         <v>489</v>
       </c>
       <c r="C488" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -7766,7 +7763,7 @@
         <v>502</v>
       </c>
       <c r="C501" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -7821,7 +7818,7 @@
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7832,7 +7829,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7909,7 +7906,7 @@
         <v>515</v>
       </c>
       <c r="C514" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -7942,7 +7939,7 @@
         <v>518</v>
       </c>
       <c r="C517" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -8063,7 +8060,7 @@
         <v>529</v>
       </c>
       <c r="C528" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -8085,7 +8082,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8107,7 +8104,7 @@
         <v>533</v>
       </c>
       <c r="C532" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -8118,7 +8115,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8162,7 +8159,7 @@
         <v>538</v>
       </c>
       <c r="C537" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="538" spans="1:3">
